--- a/Doc/instrCommand.xlsx
+++ b/Doc/instrCommand.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program\Github\LonmpMatlabInstrument\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="24795" windowHeight="11880"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="24800" windowHeight="11880"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Command" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -118,12 +123,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -165,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,7 +208,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,17 +420,17 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -474,7 +482,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -487,7 +495,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
